--- a/biology/Botanique/Kaempferia_galanga/Kaempferia_galanga.xlsx
+++ b/biology/Botanique/Kaempferia_galanga/Kaempferia_galanga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kaempferia galanga, ou galanga camphré, est une espèce de plantes monocotylédones de la famille des Zingiberaceae, sous-famille des Zingiberoideae, originaire de l'Asie du Sud.
 Kaempferia galanga est une plante herbacée pouvant atteindre 45 cm de haut, vivace par ses rhizomes, aux feuilles épaisses et arrondies disposées en rosette sur le sol.
@@ -515,17 +527,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (12 février 2022)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (12 février 2022) :
 Alpinia sessilis J.Koenig
 Kaempferia galanga var. galanga
 Kaempferia humilis  Salisb.
 Kaempferia latifolia  Donn ex Hornem.
 Kaempferia marginata  Carey ex Roscoe
 Kaempferia plantaginifolia  Salisb.
-Kaempferia rotunda  Blanco
-Variétés
-Selon Tropicos                                           (12 février 2022)[2] (Attention liste brute contenant possiblement des synonymes) :
+Kaempferia rotunda  Blanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kaempferia_galanga</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kaempferia_galanga</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (12 février 2022) (Attention liste brute contenant possiblement des synonymes) :
 Kaempferia galanga var. galanga
 Kaempferia galanga var. latifolia (Donn ex Hornem.) Donn
 </t>
